--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF867E0E-9C57-9844-B041-07943319F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E4486-9F1E-314B-8536-0CA5B7EFE142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="29920" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1016,7 +1016,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1107,6 +1107,12 @@
       <color rgb="FF546E7A"/>
       <name val="Roboto"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1201,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1233,6 +1239,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1551,7 +1558,9 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2243,7 +2252,7 @@
       <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="13"/>
@@ -2278,7 +2287,7 @@
       <c r="A25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="13"/>
@@ -2313,7 +2322,7 @@
       <c r="A26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="13"/>
@@ -2348,7 +2357,7 @@
       <c r="A27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="13"/>
@@ -2488,7 +2497,7 @@
       <c r="A31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="13"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E4486-9F1E-314B-8536-0CA5B7EFE142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC239E25-0929-D647-8C15-A30D0D3C6BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="29920" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1460,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1595,7 +1595,9 @@
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1634,9 @@
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC239E25-0929-D647-8C15-A30D0D3C6BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C31361-8CE6-764F-953C-501CCA2A14E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="29920" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1671,7 +1671,9 @@
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>327</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C31361-8CE6-764F-953C-501CCA2A14E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE31AEE-103A-2045-9AA5-D1DCE9E127C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="29920" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-parentheses/</t>
@@ -1460,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1520,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -1559,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
@@ -1596,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
@@ -1635,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -1672,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
@@ -1708,7 +1705,9 @@
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
@@ -2188,13 +2187,13 @@
         <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2224,11 +2223,11 @@
         <v>51</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2259,11 +2258,11 @@
         <v>51</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2294,11 +2293,11 @@
         <v>51</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2329,11 +2328,11 @@
         <v>51</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2364,11 +2363,11 @@
         <v>51</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2399,11 +2398,11 @@
         <v>51</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2431,14 +2430,14 @@
     </row>
     <row r="29" spans="1:27" ht="14">
       <c r="A29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2466,14 +2465,14 @@
     </row>
     <row r="30" spans="1:27" ht="14">
       <c r="A30" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2501,14 +2500,14 @@
     </row>
     <row r="31" spans="1:27" ht="14">
       <c r="A31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2536,14 +2535,14 @@
     </row>
     <row r="32" spans="1:27" ht="14">
       <c r="A32" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2571,14 +2570,14 @@
     </row>
     <row r="33" spans="1:27" ht="14">
       <c r="A33" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2606,14 +2605,14 @@
     </row>
     <row r="34" spans="1:27" ht="14">
       <c r="A34" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2641,14 +2640,14 @@
     </row>
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2676,14 +2675,14 @@
     </row>
     <row r="36" spans="1:27" ht="14">
       <c r="A36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2711,14 +2710,14 @@
     </row>
     <row r="37" spans="1:27" ht="14">
       <c r="A37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2746,14 +2745,14 @@
     </row>
     <row r="38" spans="1:27" ht="14">
       <c r="A38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2781,14 +2780,14 @@
     </row>
     <row r="39" spans="1:27" ht="14">
       <c r="A39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2816,14 +2815,14 @@
     </row>
     <row r="40" spans="1:27" ht="14">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2851,14 +2850,14 @@
     </row>
     <row r="41" spans="1:27" ht="14">
       <c r="A41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2886,14 +2885,14 @@
     </row>
     <row r="42" spans="1:27" ht="14">
       <c r="A42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2921,14 +2920,14 @@
     </row>
     <row r="43" spans="1:27" ht="14">
       <c r="A43" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2956,14 +2955,14 @@
     </row>
     <row r="44" spans="1:27" ht="14">
       <c r="A44" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2991,14 +2990,14 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3026,14 +3025,14 @@
     </row>
     <row r="46" spans="1:27" ht="15">
       <c r="A46" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3061,14 +3060,14 @@
     </row>
     <row r="47" spans="1:27" ht="14">
       <c r="A47" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3096,14 +3095,14 @@
     </row>
     <row r="48" spans="1:27" ht="14">
       <c r="A48" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -3131,14 +3130,14 @@
     </row>
     <row r="49" spans="1:27" ht="14">
       <c r="A49" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3166,14 +3165,14 @@
     </row>
     <row r="50" spans="1:27" ht="14">
       <c r="A50" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -3201,14 +3200,14 @@
     </row>
     <row r="51" spans="1:27" ht="14">
       <c r="A51" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3236,14 +3235,14 @@
     </row>
     <row r="52" spans="1:27" ht="14">
       <c r="A52" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -3271,14 +3270,14 @@
     </row>
     <row r="53" spans="1:27" ht="14">
       <c r="A53" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -3306,14 +3305,14 @@
     </row>
     <row r="54" spans="1:27" ht="14">
       <c r="A54" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3341,14 +3340,14 @@
     </row>
     <row r="55" spans="1:27" ht="14">
       <c r="A55" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3376,14 +3375,14 @@
     </row>
     <row r="56" spans="1:27" ht="14">
       <c r="A56" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3411,14 +3410,14 @@
     </row>
     <row r="57" spans="1:27" ht="14">
       <c r="A57" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3446,14 +3445,14 @@
     </row>
     <row r="58" spans="1:27" ht="14">
       <c r="A58" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3481,14 +3480,14 @@
     </row>
     <row r="59" spans="1:27" ht="14">
       <c r="A59" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3516,14 +3515,14 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3551,14 +3550,14 @@
     </row>
     <row r="61" spans="1:27" ht="15">
       <c r="A61" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3586,14 +3585,14 @@
     </row>
     <row r="62" spans="1:27" ht="14">
       <c r="A62" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -3621,14 +3620,14 @@
     </row>
     <row r="63" spans="1:27" ht="14">
       <c r="A63" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3656,14 +3655,14 @@
     </row>
     <row r="64" spans="1:27" ht="15">
       <c r="A64" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -3691,14 +3690,14 @@
     </row>
     <row r="65" spans="1:27" ht="14">
       <c r="A65" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3726,14 +3725,14 @@
     </row>
     <row r="66" spans="1:27" ht="14">
       <c r="A66" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -3761,14 +3760,14 @@
     </row>
     <row r="67" spans="1:27" ht="14">
       <c r="A67" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3796,14 +3795,14 @@
     </row>
     <row r="68" spans="1:27" ht="14">
       <c r="A68" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3831,14 +3830,14 @@
     </row>
     <row r="69" spans="1:27" ht="14">
       <c r="A69" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3866,14 +3865,14 @@
     </row>
     <row r="70" spans="1:27" ht="14">
       <c r="A70" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3901,14 +3900,14 @@
     </row>
     <row r="71" spans="1:27" ht="15">
       <c r="A71" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3936,14 +3935,14 @@
     </row>
     <row r="72" spans="1:27" ht="14">
       <c r="A72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3971,14 +3970,14 @@
     </row>
     <row r="73" spans="1:27" ht="14">
       <c r="A73" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -4006,14 +4005,14 @@
     </row>
     <row r="74" spans="1:27" ht="14">
       <c r="A74" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4041,14 +4040,14 @@
     </row>
     <row r="75" spans="1:27" ht="14">
       <c r="A75" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -4076,14 +4075,14 @@
     </row>
     <row r="76" spans="1:27" ht="14">
       <c r="A76" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4111,14 +4110,14 @@
     </row>
     <row r="77" spans="1:27" ht="14">
       <c r="A77" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4146,14 +4145,14 @@
     </row>
     <row r="78" spans="1:27" ht="14">
       <c r="A78" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4181,14 +4180,14 @@
     </row>
     <row r="79" spans="1:27" ht="14">
       <c r="A79" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4216,14 +4215,14 @@
     </row>
     <row r="80" spans="1:27" ht="15">
       <c r="A80" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4251,14 +4250,14 @@
     </row>
     <row r="81" spans="1:27" ht="14">
       <c r="A81" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -4286,14 +4285,14 @@
     </row>
     <row r="82" spans="1:27" ht="14">
       <c r="A82" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4321,14 +4320,14 @@
     </row>
     <row r="83" spans="1:27" ht="14">
       <c r="A83" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4356,14 +4355,14 @@
     </row>
     <row r="84" spans="1:27" ht="14">
       <c r="A84" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4391,14 +4390,14 @@
     </row>
     <row r="85" spans="1:27" ht="14">
       <c r="A85" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -4426,14 +4425,14 @@
     </row>
     <row r="86" spans="1:27" ht="14">
       <c r="A86" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4461,14 +4460,14 @@
     </row>
     <row r="87" spans="1:27" ht="14">
       <c r="A87" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4496,14 +4495,14 @@
     </row>
     <row r="88" spans="1:27" ht="14">
       <c r="A88" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4531,14 +4530,14 @@
     </row>
     <row r="89" spans="1:27" ht="14">
       <c r="A89" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4566,14 +4565,14 @@
     </row>
     <row r="90" spans="1:27" ht="14">
       <c r="A90" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4601,14 +4600,14 @@
     </row>
     <row r="91" spans="1:27" ht="14">
       <c r="A91" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4636,14 +4635,14 @@
     </row>
     <row r="92" spans="1:27" ht="14">
       <c r="A92" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4671,14 +4670,14 @@
     </row>
     <row r="93" spans="1:27" ht="15">
       <c r="A93" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4706,14 +4705,14 @@
     </row>
     <row r="94" spans="1:27" ht="15">
       <c r="A94" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4741,14 +4740,14 @@
     </row>
     <row r="95" spans="1:27" ht="14">
       <c r="A95" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4776,14 +4775,14 @@
     </row>
     <row r="96" spans="1:27" ht="14">
       <c r="A96" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4811,14 +4810,14 @@
     </row>
     <row r="97" spans="1:27" ht="15">
       <c r="A97" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4846,14 +4845,14 @@
     </row>
     <row r="98" spans="1:27" ht="15">
       <c r="A98" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4881,14 +4880,14 @@
     </row>
     <row r="99" spans="1:27" ht="14">
       <c r="A99" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4916,14 +4915,14 @@
     </row>
     <row r="100" spans="1:27" ht="14">
       <c r="A100" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4951,14 +4950,14 @@
     </row>
     <row r="101" spans="1:27" ht="14">
       <c r="A101" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4986,14 +4985,14 @@
     </row>
     <row r="102" spans="1:27" ht="14">
       <c r="A102" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5021,14 +5020,14 @@
     </row>
     <row r="103" spans="1:27" ht="14">
       <c r="A103" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5056,14 +5055,14 @@
     </row>
     <row r="104" spans="1:27" ht="14">
       <c r="A104" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5091,14 +5090,14 @@
     </row>
     <row r="105" spans="1:27" ht="14">
       <c r="A105" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5126,14 +5125,14 @@
     </row>
     <row r="106" spans="1:27" ht="14">
       <c r="A106" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5161,14 +5160,14 @@
     </row>
     <row r="107" spans="1:27" ht="14">
       <c r="A107" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5196,14 +5195,14 @@
     </row>
     <row r="108" spans="1:27" ht="14">
       <c r="A108" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5231,14 +5230,14 @@
     </row>
     <row r="109" spans="1:27" ht="14">
       <c r="A109" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5266,14 +5265,14 @@
     </row>
     <row r="110" spans="1:27" ht="14">
       <c r="A110" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5301,14 +5300,14 @@
     </row>
     <row r="111" spans="1:27" ht="14">
       <c r="A111" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5336,14 +5335,14 @@
     </row>
     <row r="112" spans="1:27" ht="14">
       <c r="A112" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5371,14 +5370,14 @@
     </row>
     <row r="113" spans="1:27" ht="14">
       <c r="A113" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5406,14 +5405,14 @@
     </row>
     <row r="114" spans="1:27" ht="14">
       <c r="A114" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5441,14 +5440,14 @@
     </row>
     <row r="115" spans="1:27" ht="14">
       <c r="A115" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5476,14 +5475,14 @@
     </row>
     <row r="116" spans="1:27" ht="14">
       <c r="A116" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5511,14 +5510,14 @@
     </row>
     <row r="117" spans="1:27" ht="14">
       <c r="A117" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5546,14 +5545,14 @@
     </row>
     <row r="118" spans="1:27" ht="15">
       <c r="A118" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5581,14 +5580,14 @@
     </row>
     <row r="119" spans="1:27" ht="15">
       <c r="A119" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5616,14 +5615,14 @@
     </row>
     <row r="120" spans="1:27" ht="15">
       <c r="A120" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -5651,14 +5650,14 @@
     </row>
     <row r="121" spans="1:27" ht="15">
       <c r="A121" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5686,14 +5685,14 @@
     </row>
     <row r="122" spans="1:27" ht="15">
       <c r="A122" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5721,14 +5720,14 @@
     </row>
     <row r="123" spans="1:27" ht="14">
       <c r="A123" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5756,14 +5755,14 @@
     </row>
     <row r="124" spans="1:27" ht="14">
       <c r="A124" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5791,14 +5790,14 @@
     </row>
     <row r="125" spans="1:27" ht="14">
       <c r="A125" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5826,14 +5825,14 @@
     </row>
     <row r="126" spans="1:27" ht="14">
       <c r="A126" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5861,14 +5860,14 @@
     </row>
     <row r="127" spans="1:27" ht="14">
       <c r="A127" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5896,14 +5895,14 @@
     </row>
     <row r="128" spans="1:27" ht="14">
       <c r="A128" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5931,14 +5930,14 @@
     </row>
     <row r="129" spans="1:27" ht="14">
       <c r="A129" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5966,14 +5965,14 @@
     </row>
     <row r="130" spans="1:27" ht="14">
       <c r="A130" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -6001,14 +6000,14 @@
     </row>
     <row r="131" spans="1:27" ht="14">
       <c r="A131" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -6036,14 +6035,14 @@
     </row>
     <row r="132" spans="1:27" ht="14">
       <c r="A132" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -6071,14 +6070,14 @@
     </row>
     <row r="133" spans="1:27" ht="14">
       <c r="A133" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -6106,14 +6105,14 @@
     </row>
     <row r="134" spans="1:27" ht="14">
       <c r="A134" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -6141,14 +6140,14 @@
     </row>
     <row r="135" spans="1:27" ht="14">
       <c r="A135" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -6176,14 +6175,14 @@
     </row>
     <row r="136" spans="1:27" ht="15">
       <c r="A136" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -6211,14 +6210,14 @@
     </row>
     <row r="137" spans="1:27" ht="14">
       <c r="A137" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6246,14 +6245,14 @@
     </row>
     <row r="138" spans="1:27" ht="14">
       <c r="A138" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6281,14 +6280,14 @@
     </row>
     <row r="139" spans="1:27" ht="14">
       <c r="A139" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6316,14 +6315,14 @@
     </row>
     <row r="140" spans="1:27" ht="14">
       <c r="A140" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6351,14 +6350,14 @@
     </row>
     <row r="141" spans="1:27" ht="14">
       <c r="A141" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6386,14 +6385,14 @@
     </row>
     <row r="142" spans="1:27" ht="14">
       <c r="A142" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6421,14 +6420,14 @@
     </row>
     <row r="143" spans="1:27" ht="14">
       <c r="A143" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -6456,14 +6455,14 @@
     </row>
     <row r="144" spans="1:27" ht="14">
       <c r="A144" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6491,14 +6490,14 @@
     </row>
     <row r="145" spans="1:27" ht="14">
       <c r="A145" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6526,14 +6525,14 @@
     </row>
     <row r="146" spans="1:27" ht="14">
       <c r="A146" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6561,14 +6560,14 @@
     </row>
     <row r="147" spans="1:27" ht="14">
       <c r="A147" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6596,14 +6595,14 @@
     </row>
     <row r="148" spans="1:27" ht="14">
       <c r="A148" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -6631,14 +6630,14 @@
     </row>
     <row r="149" spans="1:27" ht="14">
       <c r="A149" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6666,14 +6665,14 @@
     </row>
     <row r="150" spans="1:27" ht="14">
       <c r="A150" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -6701,14 +6700,14 @@
     </row>
     <row r="151" spans="1:27" ht="14">
       <c r="A151" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE31AEE-103A-2045-9AA5-D1DCE9E127C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48BDC2C-31B5-034F-A2F9-1EE1C1A70153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="29920" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neetcode List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2435,7 +2435,9 @@
       <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D29" s="14" t="s">
         <v>68</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48BDC2C-31B5-034F-A2F9-1EE1C1A70153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5B962-E90C-1248-92F6-3B7798C1ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1847,7 +1847,9 @@
       <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>29</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5B962-E90C-1248-92F6-3B7798C1ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D1273-01EA-824C-B66D-B104533321DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2001,7 +2001,9 @@
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="D16" s="21" t="s">
         <v>40</v>
       </c>
@@ -2684,7 +2686,9 @@
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D36" s="14" t="s">
         <v>83</v>
       </c>
@@ -2894,7 +2898,9 @@
       <c r="B42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D42" s="14" t="s">
         <v>95</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D1273-01EA-824C-B66D-B104533321DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328A352-C6D2-F545-A05D-48603E816D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2723,7 +2723,9 @@
       <c r="B37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D37" s="14" t="s">
         <v>85</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328A352-C6D2-F545-A05D-48603E816D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B807E-A492-EC45-853A-693364B7B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3217,7 +3217,9 @@
       <c r="B51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D51" s="14" t="s">
         <v>114</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B807E-A492-EC45-853A-693364B7B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50762B-F19D-1144-A064-D0731C1A2865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3254,7 +3254,9 @@
       <c r="B52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D52" s="14" t="s">
         <v>116</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50762B-F19D-1144-A064-D0731C1A2865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1887D04-7C26-2344-A367-B4F28BBA7ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3112,7 +3112,9 @@
       <c r="B48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D48" s="14" t="s">
         <v>108</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1887D04-7C26-2344-A367-B4F28BBA7ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC26DB93-60CA-B543-828C-16D8954D2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3149,7 +3149,9 @@
       <c r="B49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D49" s="14" t="s">
         <v>110</v>
       </c>
@@ -3184,7 +3186,9 @@
       <c r="B50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D50" s="14" t="s">
         <v>112</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC26DB93-60CA-B543-828C-16D8954D2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29520D18-C12C-FD41-A175-91E4320AFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Revised</t>
+  </si>
+  <si>
+    <t>Read</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4872,7 +4875,9 @@
       <c r="B98" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13" t="s">
+        <v>327</v>
+      </c>
       <c r="D98" s="14" t="s">
         <v>213</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29520D18-C12C-FD41-A175-91E4320AFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E36ED-5866-F641-84B3-6984EF58CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1460,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3080,7 +3080,9 @@
       <c r="B47" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D47" s="14" t="s">
         <v>106</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E36ED-5866-F641-84B3-6984EF58CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFDD8F-47DB-7140-90AD-AD6A25924070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1460,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1957,7 +1957,9 @@
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="D14" s="21" t="s">
         <v>35</v>
       </c>
@@ -3302,7 +3304,9 @@
       <c r="B53" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D53" s="14" t="s">
         <v>118</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFDD8F-47DB-7140-90AD-AD6A25924070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4D43E-71B4-BB41-A072-FDDDC3A589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1460,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3012,7 +3012,9 @@
       <c r="B45" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D45" s="14" t="s">
         <v>101</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4D43E-71B4-BB41-A072-FDDDC3A589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CDADF3-FABA-774E-A5B6-28A19A469C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neetcode List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1460,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2800,7 +2800,9 @@
       <c r="B39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D39" s="14" t="s">
         <v>89</v>
       </c>
@@ -2870,7 +2872,9 @@
       <c r="B41" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D41" s="14" t="s">
         <v>93</v>
       </c>
@@ -2942,7 +2946,9 @@
       <c r="B43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D43" s="14" t="s">
         <v>97</v>
       </c>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4D43E-71B4-BB41-A072-FDDDC3A589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14DD97-0963-3B4A-92FD-04D9838DE924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-10780" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neetcode List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1887,7 +1887,9 @@
       <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2802,9 @@
       <c r="B39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D39" s="14" t="s">
         <v>89</v>
       </c>
@@ -2870,7 +2874,9 @@
       <c r="B41" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D41" s="14" t="s">
         <v>93</v>
       </c>
@@ -2942,7 +2948,9 @@
       <c r="B43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="D43" s="14" t="s">
         <v>97</v>
       </c>
@@ -31605,146 +31613,146 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D12" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14DD97-0963-3B4A-92FD-04D9838DE924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8A089-C4A2-C74D-8E13-4121A8B9DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-10780" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neetcode List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="329">
   <si>
     <t>Category</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>Read</t>
+  </si>
+  <si>
+    <t>Brute force backtracking. Every char is a palindrome too</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1463,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4195,7 +4198,9 @@
       <c r="D78" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
